--- a/MS.xlsx
+++ b/MS.xlsx
@@ -17,7 +17,7 @@
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
-    <t>samedi</t>
+    <t>mercredi</t>
   </si>
   <si>
     <t>CPO (KINX6AA1)</t>
@@ -92,7 +92,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>44954.0</v>
+        <v>46050.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -129,7 +129,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n" s="1">
-        <v>44961.0</v>
+        <v>46057.0</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>1</v>
